--- a/Realme/Others/Shop wise sales report till  October 2021.xlsx
+++ b/Realme/Others/Shop wise sales report till  October 2021.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="174">
   <si>
     <t>Area</t>
   </si>
@@ -536,6 +536,9 @@
   </si>
   <si>
     <t>Phone World</t>
+  </si>
+  <si>
+    <t>VIVO Sale October</t>
   </si>
 </sst>
 </file>
@@ -1415,8 +1418,8 @@
   <dimension ref="A1:CA54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD57" sqref="AD57"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AH7" sqref="A1:CA54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1568,7 +1571,9 @@
       <c r="AE1" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="AF1" s="3"/>
+      <c r="AF1" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="AG1" s="4" t="s">
         <v>17</v>
       </c>
